--- a/biology/Zoologie/Alectrosaurus/Alectrosaurus.xlsx
+++ b/biology/Zoologie/Alectrosaurus/Alectrosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alectrosaurus, « reptile isolé » (du grec ἄλεκτρος / álektros, « sans union, seul », et σαῦρος / saûros, « lézard »), est un genre de dinosaure théropode de la super-famille des Tyrannosauroidea ayant vécu pendant le Crétacé supérieur. 
 </t>
@@ -511,9 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype a été découvert en 1923 en Mongolie-Intérieure et décrit en 1933 par le paléontologue Charles Whitney Gilmore[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype a été découvert en 1923 en Mongolie-Intérieure et décrit en 1933 par le paléontologue Charles Whitney Gilmore. 
 </t>
         </is>
       </c>
@@ -542,13 +556,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Alectrosaurus était de taille moyenne.
 Il possédait des bras assez courts, son humérus était très robuste et les griffes de sa main étaient larges, comme chez les Therizinosauridae.
 Son nom signifie Reptile isolé
 Époque :  Crétacé supérieur (- 83 Ma à - 74 Ma)
-Taille :  5 m de long, 2 m de haut, ~ 450 kg[2]
+Taille :  5 m de long, 2 m de haut, ~ 450 kg
 Régime alimentaire : carnivore</t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Inventaire des fossiles retrouvés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Os de la main, de la cheville et du pied, fémur, tibia, fibula.
 La seule espèce est Alectrosaurus olseni.
